--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H2">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I2">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J2">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N2">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O2">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P2">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q2">
-        <v>334.9547804030664</v>
+        <v>298.2904069092444</v>
       </c>
       <c r="R2">
-        <v>3014.593023627598</v>
+        <v>2684.6136621832</v>
       </c>
       <c r="S2">
-        <v>0.03410036914345536</v>
+        <v>0.03571101113408996</v>
       </c>
       <c r="T2">
-        <v>0.03410036914345537</v>
+        <v>0.03571101113408996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H3">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I3">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J3">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.709383</v>
       </c>
       <c r="O3">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P3">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q3">
-        <v>111.1698983162359</v>
+        <v>105.6829647091594</v>
       </c>
       <c r="R3">
-        <v>1000.529084846123</v>
+        <v>951.1466823824348</v>
       </c>
       <c r="S3">
-        <v>0.01131775031143677</v>
+        <v>0.01265225244256913</v>
       </c>
       <c r="T3">
-        <v>0.01131775031143677</v>
+        <v>0.01265225244256913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H4">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I4">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J4">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N4">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O4">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P4">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q4">
-        <v>183.2128041802411</v>
+        <v>108.3600164515428</v>
       </c>
       <c r="R4">
-        <v>1648.91523762217</v>
+        <v>975.240148063885</v>
       </c>
       <c r="S4">
-        <v>0.01865214237825109</v>
+        <v>0.01297274623775804</v>
       </c>
       <c r="T4">
-        <v>0.0186521423782511</v>
+        <v>0.01297274623775804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.48226033333333</v>
+        <v>27.07648166666667</v>
       </c>
       <c r="H5">
-        <v>85.446781</v>
+        <v>81.229445</v>
       </c>
       <c r="I5">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="J5">
-        <v>0.2101651977164658</v>
+        <v>0.1943552322922666</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N5">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O5">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P5">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q5">
-        <v>1435.034235580707</v>
+        <v>1111.095898424221</v>
       </c>
       <c r="R5">
-        <v>12915.30812022636</v>
+        <v>9999.863085817989</v>
       </c>
       <c r="S5">
-        <v>0.1460949358833226</v>
+        <v>0.1330192224778495</v>
       </c>
       <c r="T5">
-        <v>0.1460949358833226</v>
+        <v>0.1330192224778495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>250.353271</v>
       </c>
       <c r="I6">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J6">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N6">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O6">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P6">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q6">
-        <v>981.3947808167799</v>
+        <v>919.3461690849956</v>
       </c>
       <c r="R6">
-        <v>8832.553027351018</v>
+        <v>8274.115521764959</v>
       </c>
       <c r="S6">
-        <v>0.09991176797369955</v>
+        <v>0.1100631482602994</v>
       </c>
       <c r="T6">
-        <v>0.09991176797369955</v>
+        <v>0.1100631482602995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>250.353271</v>
       </c>
       <c r="I7">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J7">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.709383</v>
       </c>
       <c r="O7">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P7">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q7">
         <v>325.7202594935326</v>
@@ -883,10 +883,10 @@
         <v>2931.482335441793</v>
       </c>
       <c r="S7">
-        <v>0.03316024053415734</v>
+        <v>0.0389948839920662</v>
       </c>
       <c r="T7">
-        <v>0.03316024053415734</v>
+        <v>0.0389948839920662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>250.353271</v>
       </c>
       <c r="I8">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J8">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N8">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O8">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P8">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q8">
-        <v>536.8010857612745</v>
+        <v>333.9710687947893</v>
       </c>
       <c r="R8">
-        <v>4831.209771851471</v>
+        <v>3005.739619153103</v>
       </c>
       <c r="S8">
-        <v>0.05464951167151493</v>
+        <v>0.03998266213040934</v>
       </c>
       <c r="T8">
-        <v>0.05464951167151494</v>
+        <v>0.03998266213040934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>250.353271</v>
       </c>
       <c r="I9">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="J9">
-        <v>0.6157697701763504</v>
+        <v>0.599012687336886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N9">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O9">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P9">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q9">
-        <v>4204.55294711002</v>
+        <v>3424.453934963947</v>
       </c>
       <c r="R9">
-        <v>37840.97652399018</v>
+        <v>30820.08541467552</v>
       </c>
       <c r="S9">
-        <v>0.4280482499969786</v>
+        <v>0.409971992954111</v>
       </c>
       <c r="T9">
-        <v>0.4280482499969785</v>
+        <v>0.409971992954111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H10">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I10">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J10">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N10">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O10">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P10">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q10">
-        <v>103.5895599532356</v>
+        <v>159.13918831664</v>
       </c>
       <c r="R10">
-        <v>932.30603957912</v>
+        <v>1432.25269484976</v>
       </c>
       <c r="S10">
-        <v>0.01054602722660857</v>
+        <v>0.01905197483462698</v>
       </c>
       <c r="T10">
-        <v>0.01054602722660857</v>
+        <v>0.01905197483462699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H11">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I11">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J11">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.709383</v>
       </c>
       <c r="O11">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P11">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q11">
-        <v>34.38088219779111</v>
+        <v>56.38230674923699</v>
       </c>
       <c r="R11">
-        <v>309.42793978012</v>
+        <v>507.4407607431329</v>
       </c>
       <c r="S11">
-        <v>0.003500176271589634</v>
+        <v>0.006750029962245082</v>
       </c>
       <c r="T11">
-        <v>0.003500176271589635</v>
+        <v>0.006750029962245082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H12">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I12">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J12">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N12">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O12">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P12">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q12">
-        <v>56.66118196608889</v>
+        <v>57.810525128027</v>
       </c>
       <c r="R12">
-        <v>509.9506376948</v>
+        <v>520.294726152243</v>
       </c>
       <c r="S12">
-        <v>0.005768441993343284</v>
+        <v>0.006921014751717039</v>
       </c>
       <c r="T12">
-        <v>0.005768441993343287</v>
+        <v>0.00692101475171704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.808546666666667</v>
+        <v>14.445417</v>
       </c>
       <c r="H13">
-        <v>26.42564</v>
+        <v>43.336251</v>
       </c>
       <c r="I13">
-        <v>0.0649965954291964</v>
+        <v>0.1036893349422856</v>
       </c>
       <c r="J13">
-        <v>0.06499659542919642</v>
+        <v>0.1036893349422857</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N13">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O13">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P13">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q13">
-        <v>443.8048765948355</v>
+        <v>592.7743411170979</v>
       </c>
       <c r="R13">
-        <v>3994.24388935352</v>
+        <v>5334.969070053881</v>
       </c>
       <c r="S13">
-        <v>0.04518194993765492</v>
+        <v>0.07096631539369654</v>
       </c>
       <c r="T13">
-        <v>0.04518194993765492</v>
+        <v>0.07096631539369656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H14">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I14">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J14">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N14">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O14">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P14">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q14">
-        <v>173.8298950222376</v>
+        <v>157.9933457930489</v>
       </c>
       <c r="R14">
-        <v>1564.469055200138</v>
+        <v>1421.94011213744</v>
       </c>
       <c r="S14">
-        <v>0.01769690697142273</v>
+        <v>0.01891479578303809</v>
       </c>
       <c r="T14">
-        <v>0.01769690697142273</v>
+        <v>0.0189147957830381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H15">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I15">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J15">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.709383</v>
       </c>
       <c r="O15">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P15">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q15">
-        <v>57.6933152907681</v>
+        <v>55.97633983854188</v>
       </c>
       <c r="R15">
-        <v>519.239837616913</v>
+        <v>503.787058546877</v>
       </c>
       <c r="S15">
-        <v>0.00587351924387385</v>
+        <v>0.006701428034284604</v>
       </c>
       <c r="T15">
-        <v>0.005873519243873851</v>
+        <v>0.006701428034284604</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H16">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I16">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J16">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N16">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O16">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P16">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q16">
-        <v>95.08108073291888</v>
+        <v>57.39427468271856</v>
       </c>
       <c r="R16">
-        <v>855.72972659627</v>
+        <v>516.548472144467</v>
       </c>
       <c r="S16">
-        <v>0.009679813936823373</v>
+        <v>0.006871181689899862</v>
       </c>
       <c r="T16">
-        <v>0.009679813936823376</v>
+        <v>0.006871181689899863</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.78130366666667</v>
+        <v>14.34140633333333</v>
       </c>
       <c r="H17">
-        <v>44.343911</v>
+        <v>43.024219</v>
       </c>
       <c r="I17">
-        <v>0.1090684366779874</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="J17">
-        <v>0.1090684366779875</v>
+        <v>0.1029427454285617</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N17">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O17">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P17">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q17">
-        <v>744.7329165570776</v>
+        <v>588.5062154961842</v>
       </c>
       <c r="R17">
-        <v>6702.596249013698</v>
+        <v>5296.555939465658</v>
       </c>
       <c r="S17">
-        <v>0.07581819652586751</v>
+        <v>0.07045533992133911</v>
       </c>
       <c r="T17">
-        <v>0.07581819652586751</v>
+        <v>0.07045533992133912</v>
       </c>
     </row>
   </sheetData>
